--- a/data/match_model_data_rarita.xlsx
+++ b/data/match_model_data_rarita.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTL 4001\Assignment\GROUP_Z_ACC_PROJ_UNSW_2022\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6F4CC74C-2CD9-4D4E-AD1D-7B44C3307EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C926F025-4870-4384-AE60-EACA11F20D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="7485" yWindow="315" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_model_data" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,13 +1613,13 @@
         <v>21973206</v>
       </c>
       <c r="E25">
-        <v>24088798</v>
+        <v>29944751</v>
       </c>
       <c r="F25">
         <v>17759716</v>
       </c>
       <c r="H25">
-        <v>24613370</v>
+        <v>25678089</v>
       </c>
     </row>
   </sheetData>
@@ -1616,11 +1628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1680,7 @@
       </c>
       <c r="E2">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>-1590437.2822344005</v>
+        <v>4265515.7177655995</v>
       </c>
       <c r="F2">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
@@ -1676,7 +1688,7 @@
       </c>
       <c r="G2">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>5050385.9675768986</v>
+        <v>6115104.9675768986</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,7 +1708,7 @@
       </c>
       <c r="E3">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>3117081.1128683984</v>
+        <v>8973034.1128683984</v>
       </c>
       <c r="F3">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
@@ -1704,7 +1716,7 @@
       </c>
       <c r="G3">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>5333294.0295751989</v>
+        <v>6398013.0295751989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1736,7 @@
       </c>
       <c r="E4">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>-6758525.7606072016</v>
+        <v>-902572.76060720161</v>
       </c>
       <c r="F4">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
@@ -1732,7 +1744,7 @@
       </c>
       <c r="G4">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>3149778.6768628992</v>
+        <v>4214497.6768628992</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,7 +1764,7 @@
       </c>
       <c r="E5">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>-2771021.8418954983</v>
+        <v>3084931.1581045017</v>
       </c>
       <c r="F5">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
@@ -1760,7 +1772,7 @@
       </c>
       <c r="G5">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>2799259.0132700987</v>
+        <v>3863978.0132700987</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,7 +1792,7 @@
       </c>
       <c r="E6">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>367332.71914369985</v>
+        <v>6223285.7191436999</v>
       </c>
       <c r="F6">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
@@ -1788,7 +1800,7 @@
       </c>
       <c r="G6">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>3740857.0724731013</v>
+        <v>4805576.0724731013</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,7 +1820,7 @@
       </c>
       <c r="E7">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>7554380.6499137003</v>
+        <v>13410333.6499137</v>
       </c>
       <c r="F7">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="G7">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>8034547.5325777996</v>
+        <v>9099266.5325777996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,7 +1848,7 @@
       </c>
       <c r="E8">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>1893454.1712470986</v>
+        <v>7749407.1712470986</v>
       </c>
       <c r="F8">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
@@ -1844,7 +1856,7 @@
       </c>
       <c r="G8">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>6554985.0817410015</v>
+        <v>7619704.0817410015</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,7 +1876,7 @@
       </c>
       <c r="E9">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>3666550.0695634</v>
+        <v>9522503.0695634</v>
       </c>
       <c r="F9">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
@@ -1872,7 +1884,7 @@
       </c>
       <c r="G9">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>6789494.0589057989</v>
+        <v>7854213.0589057989</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,7 +1904,7 @@
       </c>
       <c r="E10">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>-726211.83681340143</v>
+        <v>5129741.1631865986</v>
       </c>
       <c r="F10">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
@@ -1900,7 +1912,7 @@
       </c>
       <c r="G10">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>6123678.4656443</v>
+        <v>7188397.4656443</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,7 +1932,7 @@
       </c>
       <c r="E11">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>-3626125.7686036006</v>
+        <v>2229827.2313963994</v>
       </c>
       <c r="F11">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
@@ -1928,7 +1940,7 @@
       </c>
       <c r="G11">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>4894142.7634493001</v>
+        <v>5958861.7634493001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,7 +1960,7 @@
       </c>
       <c r="E12">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>-1255812.1568863988</v>
+        <v>4600140.8431136012</v>
       </c>
       <c r="F12">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
@@ -1956,7 +1968,7 @@
       </c>
       <c r="G12">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>7432566.2490644008</v>
+        <v>8497285.2490644008</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,7 +1988,7 @@
       </c>
       <c r="E13">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>-994419.51447590068</v>
+        <v>4861533.4855240993</v>
       </c>
       <c r="F13">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
@@ -1984,7 +1996,7 @@
       </c>
       <c r="G13">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>5547785.772049401</v>
+        <v>6612504.772049401</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2004,7 +2016,7 @@
       </c>
       <c r="E14">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>2809497.0759189986</v>
+        <v>8665450.0759189986</v>
       </c>
       <c r="F14">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
@@ -2012,7 +2024,7 @@
       </c>
       <c r="G14">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>5423630.2386325002</v>
+        <v>6488349.2386325002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,7 +2044,7 @@
       </c>
       <c r="E15">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>4145427.4098264985</v>
+        <v>10001380.409826498</v>
       </c>
       <c r="F15">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
@@ -2040,7 +2052,7 @@
       </c>
       <c r="G15">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>5933758.3340067007</v>
+        <v>6998477.3340067007</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,7 +2072,7 @@
       </c>
       <c r="E16">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>8319205.6409527007</v>
+        <v>14175158.640952701</v>
       </c>
       <c r="F16">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
@@ -2068,7 +2080,7 @@
       </c>
       <c r="G16">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>6958036.0502354018</v>
+        <v>8022755.0502354018</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,7 +2100,7 @@
       </c>
       <c r="E17">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>7040617.9141392</v>
+        <v>12896570.9141392</v>
       </c>
       <c r="F17">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="G17">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>8232376.6826904006</v>
+        <v>9297095.6826904006</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,7 +2128,7 @@
       </c>
       <c r="E18">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>6098291.1826586016</v>
+        <v>11954244.182658602</v>
       </c>
       <c r="F18">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
@@ -2124,7 +2136,7 @@
       </c>
       <c r="G18">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>8753009.1068050005</v>
+        <v>9817728.1068050005</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,7 +2156,7 @@
       </c>
       <c r="E19">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>260545.17928919941</v>
+        <v>6116498.1792891994</v>
       </c>
       <c r="F19">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
@@ -2152,7 +2164,7 @@
       </c>
       <c r="G19">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>4219811.5964521989</v>
+        <v>5284530.5964521989</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="E20">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>5810249.1075490005</v>
+        <v>11666202.107549001</v>
       </c>
       <c r="F20">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
@@ -2180,7 +2192,7 @@
       </c>
       <c r="G20">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>8066786.6990003008</v>
+        <v>9131505.6990003008</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2200,7 +2212,7 @@
       </c>
       <c r="E21">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>-2014489.6778219007</v>
+        <v>3841463.3221780993</v>
       </c>
       <c r="F21">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
@@ -2208,7 +2220,7 @@
       </c>
       <c r="G21">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>3251121.9585697018</v>
+        <v>4315840.9585697018</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,7 +2240,7 @@
       </c>
       <c r="E22">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>-205516.05506459996</v>
+        <v>5650436.9449354</v>
       </c>
       <c r="F22">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
@@ -2236,7 +2248,7 @@
       </c>
       <c r="G22">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>5090247.544313699</v>
+        <v>6154966.544313699</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2256,7 +2268,7 @@
       </c>
       <c r="E23">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>7878391.5009873994</v>
+        <v>13734344.500987399</v>
       </c>
       <c r="F23">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
@@ -2264,7 +2276,7 @@
       </c>
       <c r="G23">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>6418863.0206882991</v>
+        <v>7483582.0206882991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,7 +2296,7 @@
       </c>
       <c r="E24">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>-234129.50341510028</v>
+        <v>5621823.4965848997</v>
       </c>
       <c r="F24">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="G24">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>4836340.4739004001</v>
+        <v>5901059.4739004001</v>
       </c>
     </row>
   </sheetData>
